--- a/APM files/135714823/135714823 EXPORT Compensation Cloud Export.xlsx
+++ b/APM files/135714823/135714823 EXPORT Compensation Cloud Export.xlsx
@@ -1,37 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135714823/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB9D31-CEA2-ED4B-B35D-90FF282B2715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="5">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Property Name</t>
+  </si>
+  <si>
+    <t>Exclude Past Date Exception</t>
+  </si>
+  <si>
+    <t>Exclude Inactive Rate Plan</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +73,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,55 +397,1842 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Property Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Exclude Past Date Exception</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Exclude Inactive Rate Plan</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>123</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>22994181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>22994229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>22994444</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>69606083</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>73033659</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>105094618</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>74864752</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>78696990</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>78696988</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>101325747</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>82937940</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>83309754</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>87746882</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>84096566</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>84043004</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>89465212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>89658991</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>89785478</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>91841651</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>91622625</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>92782956</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>92464507</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>92464508</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>101219511</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>96469762</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>96656961</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>99424667</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>105094619</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>105094617</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>108761547</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>109537636</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>99604339</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>103043644</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>100549737</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>100302628</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>109537609</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>100970691</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>105094616</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>105094614</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>101845248</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>101235182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>101219510</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>102678402</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>109808375</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>102104085</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>101294311</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>101294310</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>102285516</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>102316546</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>102316543</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>102316530</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>102285534</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>102844729</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>103173644</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>103367532</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>102285515</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>103048182</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>106533526</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>101845249</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>103043646</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>104068081</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>102510428</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>105968743</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>103043647</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>111244685</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>102752551</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>104068080</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>103566948</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>102679758</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>104428917</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>104068082</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>103907760</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>104299433</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>104779539</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>104779537</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>104779540</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>106429772</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>104779532</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>104779548</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>105363216</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>104779535</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>105573259</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>105363221</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>106873662</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>106764305</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>107242747</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>105363226</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>105573252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>106400123</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>106400126</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>105867478</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>106400125</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>107830684</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>106029312</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>105867483</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>107457112</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>107830577</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>106255314</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>106502266</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>106400120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>106400119</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>106502269</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>108196581</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>109120309</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>106764287</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106873661</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107573355</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>106914148</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>107120759</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>107300397</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>107144386</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>106697554</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>107242746</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>106697553</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>107201804</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>107830578</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>108427989</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>108193467</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>108427990</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>107457117</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>108761580</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>108196584</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>108196582</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>108196583</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>108196540</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>108196539</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>108193466</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>108193470</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>108196544</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>108193465</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>108196541</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>108568132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>106999807</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>109026095</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>108427991</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>109739436</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>109739430</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>109423224</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>109120284</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>109026094</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>109026093</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>109423223</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>109423221</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>111081092</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>110110908</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>110110900</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>108568135</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>109930102</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>109808378</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>108967861</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>109739441</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>110591237</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>110742115</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>110779400</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>110892135</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>111081094</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>22994248</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>22994479</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>22994158</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>22994798</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>22994423</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>54037988</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>70761468</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>22994101</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>44272729</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
